--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Sort1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N2">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P2">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q2">
-        <v>5.469338630575765</v>
+        <v>5.71560142535</v>
       </c>
       <c r="R2">
-        <v>5.469338630575765</v>
+        <v>51.44041282815</v>
       </c>
       <c r="S2">
-        <v>0.003910032199601611</v>
+        <v>0.003983799466538859</v>
       </c>
       <c r="T2">
-        <v>0.003910032199601611</v>
+        <v>0.003983799466538859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N3">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P3">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q3">
-        <v>14.50609662520718</v>
+        <v>14.677189118105</v>
       </c>
       <c r="R3">
-        <v>14.50609662520718</v>
+        <v>132.094702062945</v>
       </c>
       <c r="S3">
-        <v>0.01037041381530282</v>
+        <v>0.01023006571446086</v>
       </c>
       <c r="T3">
-        <v>0.01037041381530282</v>
+        <v>0.01023006571446086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N4">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P4">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q4">
-        <v>69.54286818460339</v>
+        <v>69.95714495626832</v>
       </c>
       <c r="R4">
-        <v>69.54286818460339</v>
+        <v>629.614304606415</v>
       </c>
       <c r="S4">
-        <v>0.04971622205550377</v>
+        <v>0.04876043936886261</v>
       </c>
       <c r="T4">
-        <v>0.04971622205550377</v>
+        <v>0.04876043936886262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H5">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N5">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P5">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q5">
-        <v>66.42834895182891</v>
+        <v>68.33777079707333</v>
       </c>
       <c r="R5">
-        <v>66.42834895182891</v>
+        <v>615.03993717366</v>
       </c>
       <c r="S5">
-        <v>0.04748965110991491</v>
+        <v>0.04763172841940504</v>
       </c>
       <c r="T5">
-        <v>0.04748965110991491</v>
+        <v>0.04763172841940504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H6">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N6">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P6">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q6">
-        <v>13.04679883536202</v>
+        <v>13.557518836525</v>
       </c>
       <c r="R6">
-        <v>13.04679883536202</v>
+        <v>122.017669528725</v>
       </c>
       <c r="S6">
-        <v>0.009327161288351248</v>
+        <v>0.00944965057727612</v>
       </c>
       <c r="T6">
-        <v>0.009327161288351248</v>
+        <v>0.009449650577276118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N7">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P7">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q7">
-        <v>8.908117101102725</v>
+        <v>9.358574156040001</v>
       </c>
       <c r="R7">
-        <v>8.908117101102725</v>
+        <v>84.22716740436002</v>
       </c>
       <c r="S7">
-        <v>0.006368416193580374</v>
+        <v>0.00652296756821413</v>
       </c>
       <c r="T7">
-        <v>0.006368416193580374</v>
+        <v>0.006522967568214131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H8">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N8">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P8">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q8">
-        <v>23.62662401169577</v>
+        <v>24.032040120012</v>
       </c>
       <c r="R8">
-        <v>23.62662401169577</v>
+        <v>216.288361080108</v>
       </c>
       <c r="S8">
-        <v>0.01689068220006812</v>
+        <v>0.01675043822778136</v>
       </c>
       <c r="T8">
-        <v>0.01689068220006812</v>
+        <v>0.01675043822778136</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H9">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N9">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P9">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q9">
-        <v>113.2670794731506</v>
+        <v>114.545973397364</v>
       </c>
       <c r="R9">
-        <v>113.2670794731506</v>
+        <v>1030.913760576276</v>
       </c>
       <c r="S9">
-        <v>0.08097467679528762</v>
+        <v>0.07983904995381118</v>
       </c>
       <c r="T9">
-        <v>0.08097467679528762</v>
+        <v>0.07983904995381119</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H10">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N10">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P10">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q10">
-        <v>108.1943451055821</v>
+        <v>111.894453106256</v>
       </c>
       <c r="R10">
-        <v>108.1943451055821</v>
+        <v>1007.050077956304</v>
       </c>
       <c r="S10">
-        <v>0.07734817712925203</v>
+        <v>0.07799092858649835</v>
       </c>
       <c r="T10">
-        <v>0.07734817712925203</v>
+        <v>0.07799092858649835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H11">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N11">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O11">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P11">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q11">
-        <v>21.24981093147283</v>
+        <v>22.19872170246001</v>
       </c>
       <c r="R11">
-        <v>21.24981093147283</v>
+        <v>199.78849532214</v>
       </c>
       <c r="S11">
-        <v>0.01519149765439891</v>
+        <v>0.01547260718423685</v>
       </c>
       <c r="T11">
-        <v>0.01519149765439891</v>
+        <v>0.01547260718423684</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H12">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N12">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O12">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P12">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q12">
-        <v>15.1713394934379</v>
+        <v>15.82638857601667</v>
       </c>
       <c r="R12">
-        <v>15.1713394934379</v>
+        <v>142.43749718415</v>
       </c>
       <c r="S12">
-        <v>0.01084599618659652</v>
+        <v>0.01103106281811997</v>
       </c>
       <c r="T12">
-        <v>0.01084599618659652</v>
+        <v>0.01103106281811997</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H13">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N13">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O13">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P13">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q13">
-        <v>40.23830512071696</v>
+        <v>40.64084964997166</v>
       </c>
       <c r="R13">
-        <v>40.23830512071696</v>
+        <v>365.767646849745</v>
       </c>
       <c r="S13">
-        <v>0.02876637913766093</v>
+        <v>0.02832685191048442</v>
       </c>
       <c r="T13">
-        <v>0.02876637913766093</v>
+        <v>0.02832685191048442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H14">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N14">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O14">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P14">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q14">
-        <v>192.9042127100753</v>
+        <v>193.7099663451128</v>
       </c>
       <c r="R14">
-        <v>192.9042127100753</v>
+        <v>1743.389697106015</v>
       </c>
       <c r="S14">
-        <v>0.1379072926511757</v>
+        <v>0.1350167030832918</v>
       </c>
       <c r="T14">
-        <v>0.1379072926511757</v>
+        <v>0.1350167030832919</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H15">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N15">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O15">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P15">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q15">
-        <v>184.2648813702476</v>
+        <v>189.2259509657844</v>
       </c>
       <c r="R15">
-        <v>184.2648813702476</v>
+        <v>1703.03355869206</v>
       </c>
       <c r="S15">
-        <v>0.1317310314972384</v>
+        <v>0.1318913245366192</v>
       </c>
       <c r="T15">
-        <v>0.1317310314972384</v>
+        <v>0.1318913245366193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H16">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N16">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O16">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P16">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q16">
-        <v>36.19037470587742</v>
+        <v>37.54050453585834</v>
       </c>
       <c r="R16">
-        <v>36.19037470587742</v>
+        <v>337.864540822725</v>
       </c>
       <c r="S16">
-        <v>0.02587251219453784</v>
+        <v>0.02616589765693713</v>
       </c>
       <c r="T16">
-        <v>0.02587251219453784</v>
+        <v>0.02616589765693713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H17">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N17">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O17">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P17">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q17">
-        <v>13.25447046313684</v>
+        <v>13.98845171802</v>
       </c>
       <c r="R17">
-        <v>13.25447046313684</v>
+        <v>125.89606546218</v>
       </c>
       <c r="S17">
-        <v>0.009475625811466312</v>
+        <v>0.009750012701163843</v>
       </c>
       <c r="T17">
-        <v>0.009475625811466312</v>
+        <v>0.009750012701163845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H18">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N18">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O18">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P18">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q18">
-        <v>35.15427407974865</v>
+        <v>35.921180652006</v>
       </c>
       <c r="R18">
-        <v>35.15427407974865</v>
+        <v>323.290625868054</v>
       </c>
       <c r="S18">
-        <v>0.02513180347565488</v>
+        <v>0.0250372217496157</v>
       </c>
       <c r="T18">
-        <v>0.02513180347565488</v>
+        <v>0.0250372217496157</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H19">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N19">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O19">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P19">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q19">
-        <v>168.5311432577379</v>
+        <v>171.214203322682</v>
       </c>
       <c r="R19">
-        <v>168.5311432577379</v>
+        <v>1540.927829904138</v>
       </c>
       <c r="S19">
-        <v>0.1204829763309165</v>
+        <v>0.1193370567855872</v>
       </c>
       <c r="T19">
-        <v>0.1204829763309165</v>
+        <v>0.1193370567855873</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H20">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N20">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O20">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P20">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q20">
-        <v>160.9833745116409</v>
+        <v>167.250921849128</v>
       </c>
       <c r="R20">
-        <v>160.9833745116409</v>
+        <v>1505.258296642152</v>
       </c>
       <c r="S20">
-        <v>0.1150870736769096</v>
+        <v>0.1165746320738044</v>
       </c>
       <c r="T20">
-        <v>0.1150870736769096</v>
+        <v>0.1165746320738045</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H21">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N21">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O21">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P21">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q21">
-        <v>31.61779174451842</v>
+        <v>33.18088221123001</v>
       </c>
       <c r="R21">
-        <v>31.61779174451842</v>
+        <v>298.62793990107</v>
       </c>
       <c r="S21">
-        <v>0.02260357095284675</v>
+        <v>0.02312722161942779</v>
       </c>
       <c r="T21">
-        <v>0.02260357095284675</v>
+        <v>0.02312722161942779</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H22">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.692386891585558</v>
+        <v>0.72097</v>
       </c>
       <c r="N22">
-        <v>0.692386891585558</v>
+        <v>2.16291</v>
       </c>
       <c r="O22">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712134</v>
       </c>
       <c r="P22">
-        <v>0.03236420459400174</v>
+        <v>0.03318293102712135</v>
       </c>
       <c r="Q22">
-        <v>2.467664421188533</v>
+        <v>2.718904520396667</v>
       </c>
       <c r="R22">
-        <v>2.467664421188533</v>
+        <v>24.47014068357</v>
       </c>
       <c r="S22">
-        <v>0.001764134202756926</v>
+        <v>0.001895088473084537</v>
       </c>
       <c r="T22">
-        <v>0.001764134202756926</v>
+        <v>0.001895088473084537</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H23">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.83638860743015</v>
+        <v>1.851391</v>
       </c>
       <c r="N23">
-        <v>1.83638860743015</v>
+        <v>5.554173</v>
       </c>
       <c r="O23">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479757</v>
       </c>
       <c r="P23">
-        <v>0.08583821751573294</v>
+        <v>0.08521100719479759</v>
       </c>
       <c r="Q23">
-        <v>6.544882471206302</v>
+        <v>6.981920688685666</v>
       </c>
       <c r="R23">
-        <v>6.544882471206302</v>
+        <v>62.837286198171</v>
       </c>
       <c r="S23">
-        <v>0.004678938887046171</v>
+        <v>0.004866429592455239</v>
       </c>
       <c r="T23">
-        <v>0.004678938887046171</v>
+        <v>0.00486642959245524</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H24">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.80372812630416</v>
+        <v>8.824443666666665</v>
       </c>
       <c r="N24">
-        <v>8.80372812630416</v>
+        <v>26.473331</v>
       </c>
       <c r="O24">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191571</v>
       </c>
       <c r="P24">
-        <v>0.4115122076000008</v>
+        <v>0.4061485298191572</v>
       </c>
       <c r="Q24">
-        <v>31.37645575777492</v>
+        <v>33.27852722760411</v>
       </c>
       <c r="R24">
-        <v>31.37645575777492</v>
+        <v>299.506745048437</v>
       </c>
       <c r="S24">
-        <v>0.02243103976711719</v>
+        <v>0.02319528062760426</v>
       </c>
       <c r="T24">
-        <v>0.02243103976711719</v>
+        <v>0.02319528062760426</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H25">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.409447860257229</v>
+        <v>8.620174666666665</v>
       </c>
       <c r="N25">
-        <v>8.409447860257229</v>
+        <v>25.860524</v>
       </c>
       <c r="O25">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429597</v>
       </c>
       <c r="P25">
-        <v>0.3930823855557118</v>
+        <v>0.3967469678429598</v>
       </c>
       <c r="Q25">
-        <v>29.97124229067315</v>
+        <v>32.50819294534978</v>
       </c>
       <c r="R25">
-        <v>29.97124229067315</v>
+        <v>292.573736508148</v>
       </c>
       <c r="S25">
-        <v>0.02142645214239677</v>
+        <v>0.02265835422663264</v>
       </c>
       <c r="T25">
-        <v>0.02142645214239677</v>
+        <v>0.02265835422663265</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H26">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.65164987961395</v>
+        <v>1.710155</v>
       </c>
       <c r="N26">
-        <v>1.65164987961395</v>
+        <v>5.130465</v>
       </c>
       <c r="O26">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="P26">
-        <v>0.0772029847345527</v>
+        <v>0.07871056411596419</v>
       </c>
       <c r="Q26">
-        <v>5.886474301745259</v>
+        <v>6.449294922228334</v>
       </c>
       <c r="R26">
-        <v>5.886474301745259</v>
+        <v>58.043654300055</v>
       </c>
       <c r="S26">
-        <v>0.004208242644417943</v>
+        <v>0.004495187078086309</v>
       </c>
       <c r="T26">
-        <v>0.004208242644417943</v>
+        <v>0.004495187078086309</v>
       </c>
     </row>
   </sheetData>
